--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,12 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>DC Shortening</t>
+          <t>DC Shortening (test)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Kąty gięcia (test)</t>
         </is>
       </c>
     </row>
@@ -551,7 +556,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>DC00=4.55085, DC01=3.821885, DC01=3.821885</t>
+          <t>4.55,3.82,3.82</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>-90,150</t>
         </is>
       </c>
     </row>
@@ -606,7 +616,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>DC00=6.064837, DC00=6.064837, DC01=6.064837</t>
+          <t>6.06,6.06,6.06</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>90,90</t>
         </is>
       </c>
     </row>
@@ -657,7 +672,12 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>DC00=3.876429, DC00=3.876429, DC01=4.773604, DC02=4.773604</t>
+          <t>3.88,3.88,4.77,4.77</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>150,-90,-90</t>
         </is>
       </c>
     </row>
@@ -712,7 +732,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>DC00=2.773604, DC00=2.773604, DC01=3.340531, DC02=2.773604</t>
+          <t>2.77,2.77,3.34,2.77</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>90,-150,90</t>
         </is>
       </c>
     </row>
@@ -757,7 +782,12 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>DC00=4.816478, DC00=4.816478</t>
+          <t>4.82,4.82</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>
@@ -802,7 +832,12 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>DC00=4.816478, DC00=4.816478</t>
+          <t>4.82,4.82</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>70</t>
         </is>
       </c>
     </row>
@@ -853,7 +888,12 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>DC00=8.0, DC01=10.042726, DC01=10.042726</t>
+          <t>8.0,10.04,10.04</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-90,70</t>
         </is>
       </c>
     </row>
@@ -898,7 +938,12 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>DC00=4.816478, DC00=4.816478</t>
+          <t>4.82,4.82</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>90</t>
         </is>
       </c>
     </row>

--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
@@ -551,12 +551,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>95.44915,17.627265,32.178115</t>
+          <t>100.0,26.0,36.0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.55,3.82,3.82</t>
+          <t>4.55,3.82</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -611,12 +611,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>37.870326,13.935163,13.935163</t>
+          <t>43.935163,26.064837,20.0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.06,6.06,6.06</t>
+          <t>6.06,6.06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.88,3.88,4.77,4.77</t>
+          <t>3.88,4.77,4.77</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>193.885865,15.226396,44.885869,15.226396</t>
+          <t>196.659469,21.340531,51.000004,18.0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.77,2.77,3.34,2.77</t>
+          <t>2.77,3.34,2.77</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -782,7 +782,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4.82,4.82</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -832,7 +832,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.82,4.82</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -888,7 +888,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8.0,10.04,10.04</t>
+          <t>8.0,10.04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -938,7 +938,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4.82,4.82</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">

--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>4.55,3.82</t>
+          <t>4.55,3.82,3.82</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>MainPlane: static=95.44915, DC count=1, DC values: DC00=4.55; Computed dims: 100.0
+          <t>MAINPLANE: static=95.44915, DC count=1, DC values: DC00=4.55; Computed dims: 100.0
 SC00: static=17.627265, DC count=1, DC values: DC01=3.82; Computed dims: 21.44915
 SC01: static=32.178115, DC count=1, DC values: DC01=3.82; Computed dims: 36.0</t>
         </is>
@@ -628,7 +628,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>6.06,6.06</t>
+          <t>6.06,6.06,6.06</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>MainPlane: static=37.870326, DC count=1, DC values: DC00=6.06; Computed dims: 43.935163
+          <t>MAINPLANE: static=37.870326, DC count=1, DC values: DC00=6.06; Computed dims: 43.935163
 SC00: static=13.935163, DC count=1, DC values: DC00=6.06; Computed dims: 20.0
 SC01: static=13.935163, DC count=1, DC values: DC01=6.06; Computed dims: 20.0</t>
         </is>
@@ -691,7 +691,7 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>3.88,4.77,4.77</t>
+          <t>3.88,3.88,4.77,4.77</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2.77,3.34,2.77</t>
+          <t>2.77,2.77,3.34,2.77</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>MainPlane: static=193.885865, DC count=1, DC values: DC00=2.77; Computed dims: 196.659469
+          <t>MAINPLANE: static=193.885865, DC count=1, DC values: DC00=2.77; Computed dims: 196.659469
 SC00: static=15.226396, DC count=1, DC values: DC00=2.77; Computed dims: 18.0
 SC01: static=44.885869, DC count=1, DC values: DC01=3.34; Computed dims: 48.2264
 SC02: static=15.226396, DC count=1, DC values: DC02=2.77; Computed dims: 18.0</t>
@@ -817,7 +817,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.82,4.82</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>MainPlane: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
+          <t>MAINPLANE: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
 SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
         </is>
       </c>
@@ -873,7 +873,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.82,4.82</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>MainPlane: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
+          <t>MAINPLANE: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
 SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
         </is>
       </c>
@@ -935,7 +935,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>8.0,10.04</t>
+          <t>8.0,10.04,10.04</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>MainPlane: static=62.0, DC count=1, DC values: DC00=8.0; Computed dims: 70.0
+          <t>MAINPLANE: static=62.0, DC count=1, DC values: DC00=8.0; Computed dims: 70.0
 SC00: static=41.957274, DC count=1, DC values: DC01=10.04; Computed dims: 52.0
 SC01: static=9.957274, DC count=1, DC values: DC01=10.04; Computed dims: 20.0</t>
         </is>
@@ -992,7 +992,7 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.82,4.82</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>MainPlane: static=195.183522, DC count=1, DC values: DC00=4.82; Computed dims: 200.0
+          <t>MAINPLANE: static=195.183522, DC count=1, DC values: DC00=4.82; Computed dims: 200.0
 SC00: static=45.183522, DC count=1, DC values: DC00=4.82; Computed dims: 50.0</t>
         </is>
       </c>

--- a/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
+++ b/testy_logiki_gięcia2/2.test_wyciagania_odcinkow/o3/TESTY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,6 +509,11 @@
           <t>Grouped Dimensions (test)</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Grouped2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +581,13 @@
 SC01: static=32.178115, DC count=1, DC values: DC01=3.82; Computed dims: 36.0</t>
         </is>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>MainPlane: static=95.44915, DC count=1, DC values: DC00=4.55; Computed dims: 100.0
+SC00: static=17.627265, DC count=2, DC values: DC01=3.82, DC00=4.55; Computed dims: 26.0
+SC01: static=32.178115, DC count=1, DC values: DC01=3.82; Computed dims: 36.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -639,6 +651,13 @@
       <c r="O3" t="inlineStr">
         <is>
           <t>MAINPLANE: static=37.870326, DC count=1, DC values: DC00=6.06; Computed dims: 43.935163
+SC00: static=13.935163, DC count=1, DC values: DC00=6.06; Computed dims: 20.0
+SC01: static=13.935163, DC count=1, DC values: DC01=6.06; Computed dims: 20.0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MainPlane: static=37.870326, DC count=2, DC values: DC00=6.06, DC01=6.06; Computed dims: 50.0
 SC00: static=13.935163, DC count=1, DC values: DC00=6.06; Computed dims: 20.0
 SC01: static=13.935163, DC count=1, DC values: DC01=6.06; Computed dims: 20.0</t>
         </is>
@@ -707,6 +726,14 @@
 SC03: static=15.226396, DC count=1, DC values: DC02=4.77; Computed dims: 20.0</t>
         </is>
       </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>SC00: static=347.349967, DC count=2, DC values: DC00=3.88, DC02=4.77; Computed dims: 356.0
+SC01: static=45.349967, DC count=2, DC values: DC00=3.88, DC01=4.77; Computed dims: 54.0
+SC02: static=15.226396, DC count=1, DC values: DC01=4.77; Computed dims: 20.0
+SC03: static=15.226396, DC count=1, DC values: DC02=4.77; Computed dims: 20.0</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -775,6 +802,14 @@
 SC02: static=15.226396, DC count=1, DC values: DC02=2.77; Computed dims: 18.0</t>
         </is>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>MainPlane: static=193.885865, DC count=2, DC values: DC00=2.77, DC01=3.34; Computed dims: 200.0
+SC00: static=15.226396, DC count=1, DC values: DC00=2.77; Computed dims: 18.0
+SC01: static=44.885869, DC count=2, DC values: DC01=3.34, DC02=2.77; Computed dims: 51.000004
+SC02: static=15.226396, DC count=1, DC values: DC02=2.77; Computed dims: 18.0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -831,6 +866,12 @@
 SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
         </is>
       </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>MainPlane: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
+SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -887,6 +928,12 @@
 SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
         </is>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>MainPlane: static=55.183522, DC count=1, DC values: DC00=4.82; Computed dims: 60.0
+SC00: static=25.183522, DC count=1, DC values: DC00=4.82; Computed dims: 30.0</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -950,6 +997,13 @@
 SC01: static=9.957274, DC count=1, DC values: DC01=10.04; Computed dims: 20.0</t>
         </is>
       </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>MainPlane: static=62.0, DC count=1, DC values: DC00=8.0; Computed dims: 70.0
+SC00: static=41.957274, DC count=2, DC values: DC01=10.04, DC00=8.0; Computed dims: 60.0
+SC01: static=9.957274, DC count=1, DC values: DC01=10.04; Computed dims: 20.0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1003,6 +1057,12 @@
       <c r="O9" t="inlineStr">
         <is>
           <t>MAINPLANE: static=195.183522, DC count=1, DC values: DC00=4.82; Computed dims: 200.0
+SC00: static=45.183522, DC count=1, DC values: DC00=4.82; Computed dims: 50.0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>MainPlane: static=195.183522, DC count=1, DC values: DC00=4.82; Computed dims: 200.0
 SC00: static=45.183522, DC count=1, DC values: DC00=4.82; Computed dims: 50.0</t>
         </is>
       </c>
